--- a/DATA SCIENCE USING AI/SQL CASE STUDY USING AI/Food Panda Case Study.xlsx
+++ b/DATA SCIENCE USING AI/SQL CASE STUDY USING AI/Food Panda Case Study.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansi.P\OneDrive - AFour Technologies Pvt. Ltd\Desktop\AI\artificial-intelligence\DATA SCIENCE USING AI\SQL CASE STUDY USING AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5D78BD-2DDD-41DD-A767-9D744714DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD894B-854A-4DB0-8EC2-FC5FA93D8BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6B2C49D-E9F8-4FFA-90E9-1691B484508B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E6B2C49D-E9F8-4FFA-90E9-1691B484508B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Key Questions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>order_id</t>
   </si>
@@ -53,24 +54,15 @@
     <t>delivery_partner_id</t>
   </si>
   <si>
-    <t>order_status</t>
-  </si>
-  <si>
     <t>delivery_timestamp</t>
   </si>
   <si>
     <t>complaint_or_compliment_message</t>
   </si>
   <si>
-    <t>payment_or_cancellation_issue</t>
-  </si>
-  <si>
     <t>restaurant_id</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -83,21 +75,9 @@
     <t>Delivered</t>
   </si>
   <si>
-    <t>Great service!</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>Payment failed</t>
-  </si>
-  <si>
-    <t>Food should be hotter</t>
-  </si>
-  <si>
-    <t>Loved the food!</t>
-  </si>
-  <si>
     <t>Orders</t>
   </si>
   <si>
@@ -128,45 +108,9 @@
     <t>Margherita Pizza</t>
   </si>
   <si>
-    <t>Classic cheese and tomato pizza</t>
-  </si>
-  <si>
     <t>Main Course</t>
   </si>
   <si>
-    <t>Spaghetti Carbonara</t>
-  </si>
-  <si>
-    <t>Italian pasta with creamy sauce and bacon</t>
-  </si>
-  <si>
-    <t>Caesar Salad</t>
-  </si>
-  <si>
-    <t>Fresh lettuce, croutons, parmesan cheese, and Caesar dressing</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Chocolate Lava Cake</t>
-  </si>
-  <si>
-    <t>Warm chocolate cake with molten chocolate center</t>
-  </si>
-  <si>
-    <t>Dessert</t>
-  </si>
-  <si>
-    <t>Mango Smoothie</t>
-  </si>
-  <si>
-    <t>Refreshing mango smoothie with yogurt and honey</t>
-  </si>
-  <si>
-    <t>Beverage</t>
-  </si>
-  <si>
     <t>Table 3</t>
   </si>
   <si>
@@ -188,61 +132,151 @@
     <t>average_rating</t>
   </si>
   <si>
-    <t>The Food Court</t>
-  </si>
-  <si>
-    <t>123 Main Street</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
     <t>Maharashtra</t>
   </si>
   <si>
-    <t>Spice Delight</t>
-  </si>
-  <si>
-    <t>45 Bazaar Road</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>Tandoori Treats</t>
-  </si>
-  <si>
-    <t>789 Market Lane</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Ocean Breeze Cafe</t>
-  </si>
-  <si>
-    <t>22 Beach Road</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
     <t>Tamil Nadu</t>
   </si>
   <si>
-    <t>Golden Dragon</t>
-  </si>
-  <si>
-    <t>67 Chinatown</t>
-  </si>
-  <si>
     <t>Kolkata</t>
   </si>
   <si>
     <t>West Bengal</t>
+  </si>
+  <si>
+    <t>order status</t>
+  </si>
+  <si>
+    <t>Payment_or_cancellation_issue</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>Delicious food!</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>Payment issue</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>Paneer Butter Masala</t>
+  </si>
+  <si>
+    <t>Creamy paneer curry with spices</t>
+  </si>
+  <si>
+    <t>Classic cheese pizza with tomato sauce</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Chicken Burger</t>
+  </si>
+  <si>
+    <t>Grilled chicken patty with fresh veggies</t>
+  </si>
+  <si>
+    <t>Fast Food</t>
+  </si>
+  <si>
+    <t>California Roll</t>
+  </si>
+  <si>
+    <t>Sushi roll with crab, avocado, and cucumber</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Vegan Salad</t>
+  </si>
+  <si>
+    <t>Fresh greens with tofu and vinaigrette</t>
+  </si>
+  <si>
+    <t>Salads</t>
+  </si>
+  <si>
+    <t>The Spice House</t>
+  </si>
+  <si>
+    <t>123 Curry St</t>
+  </si>
+  <si>
+    <t>Pizza Palace</t>
+  </si>
+  <si>
+    <t>456 Cheese Ave</t>
+  </si>
+  <si>
+    <t>Burger Barn</t>
+  </si>
+  <si>
+    <t>789 Grill Rd</t>
+  </si>
+  <si>
+    <t>Sushi Spot</t>
+  </si>
+  <si>
+    <t>321 Sashimi Ln</t>
+  </si>
+  <si>
+    <t>Vegan Delight</t>
+  </si>
+  <si>
+    <t>654 Plant St</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>total_orders</t>
+  </si>
+  <si>
+    <t>Question 2</t>
   </si>
 </sst>
 </file>
@@ -303,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -326,11 +360,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -347,6 +396,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -683,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D81932-6623-40A9-BF2E-BA9601BEB625}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,17 +763,17 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,594 +790,434 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>101</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45701.530590277776</v>
+      </c>
+      <c r="E4" s="4">
         <v>201</v>
       </c>
-      <c r="D4" s="5">
-        <v>45330.520833333336</v>
-      </c>
-      <c r="E4" s="4">
-        <v>301</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="5">
+        <v>45701.530590277776</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4" s="4">
-        <v>401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>102</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45701.530590277776</v>
+      </c>
+      <c r="E5" s="6">
         <v>202</v>
       </c>
-      <c r="D5" s="7">
-        <v>45330.524305555555</v>
-      </c>
-      <c r="E5" s="6">
-        <v>302</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="7">
+        <v>45701.530590277776</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" s="6">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>103</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45701.530590277776</v>
+      </c>
+      <c r="E6" s="4">
         <v>203</v>
       </c>
-      <c r="D6" s="5">
-        <v>45330.527777777781</v>
-      </c>
-      <c r="E6" s="4">
-        <v>303</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45330.541666666664</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J6" s="4">
-        <v>403</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>104</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45701.530590277776</v>
+      </c>
+      <c r="E7" s="6">
         <v>204</v>
       </c>
-      <c r="D7" s="7">
-        <v>45330.53125</v>
-      </c>
-      <c r="E7" s="6">
-        <v>304</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7">
-        <v>45330.548611111109</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J7" s="6">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45701.530590277776</v>
+      </c>
+      <c r="E8" s="4">
         <v>205</v>
       </c>
-      <c r="D8" s="5">
-        <v>45330.534722222219</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>106</v>
-      </c>
-      <c r="C9" s="6">
-        <v>206</v>
-      </c>
-      <c r="D9" s="7">
-        <v>45330.538194444445</v>
-      </c>
-      <c r="E9" s="6">
-        <v>305</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7">
-        <v>45330.552083333336</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4">
+        <v>250</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6">
+        <v>350</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4">
+        <v>180</v>
+      </c>
+      <c r="E15" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>107</v>
-      </c>
-      <c r="C10" s="4">
-        <v>207</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45330.541666666664</v>
-      </c>
-      <c r="E10" s="4">
-        <v>306</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="6">
+        <v>400</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4">
+        <v>200</v>
+      </c>
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>108</v>
-      </c>
-      <c r="C11" s="6">
-        <v>208</v>
-      </c>
-      <c r="D11" s="7">
-        <v>45330.545138888891</v>
-      </c>
-      <c r="E11" s="6">
-        <v>307</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>109</v>
-      </c>
-      <c r="C12" s="4">
-        <v>209</v>
-      </c>
-      <c r="D12" s="5">
-        <v>45330.548611111109</v>
-      </c>
-      <c r="E12" s="4">
-        <v>308</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45330.5625</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>110</v>
-      </c>
-      <c r="C13" s="6">
-        <v>210</v>
-      </c>
-      <c r="D13" s="7">
-        <v>45330.552083333336</v>
-      </c>
-      <c r="E13" s="6">
-        <v>309</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7">
-        <v>45330.572916666664</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="6">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4">
-        <v>299.99</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="6">
-        <v>349.5</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="E24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4">
-        <v>199</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="6">
-        <v>249.99</v>
-      </c>
-      <c r="E22" s="6">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4">
-        <v>149.5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
-        <v>2</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="4">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
-        <v>4</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="F27" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -1327,4 +1225,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12D4B24-2DCA-44C8-8532-3E0DC8D52E90}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>